--- a/QSSD/testing/perfect&perfect2(composite).xlsx
+++ b/QSSD/testing/perfect&perfect2(composite).xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Forename</t>
   </si>
@@ -23,122 +20,54 @@
     <t>Surname</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Adams</t>
   </si>
   <si>
-    <t>Emails</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
+    <t>Adams.smith@email.co</t>
+  </si>
+  <si>
     <t>Baker</t>
   </si>
   <si>
     <t>Hall</t>
   </si>
   <si>
+    <t>Baker.hall@email.co</t>
+  </si>
+  <si>
     <t>Clark</t>
   </si>
   <si>
     <t>Stewart</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Ghosh</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Hills</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Irwin</t>
-  </si>
-  <si>
-    <t>Reed</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Perry</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>adam.smith@mail.co</t>
-  </si>
-  <si>
-    <t>John</t>
+    <t>Clark.stewart@email.co</t>
   </si>
   <si>
     <t>Grover</t>
   </si>
   <si>
-    <t>baker.hall@mail.co</t>
-  </si>
-  <si>
-    <t>clark.stewart@mail.co</t>
-  </si>
-  <si>
-    <t>davis.price@mail.co</t>
-  </si>
-  <si>
-    <t>evans.johnson@mail.co</t>
-  </si>
-  <si>
-    <t>frank.allens@mail.co</t>
-  </si>
-  <si>
-    <t>ghosh.brown@mail.co</t>
-  </si>
-  <si>
-    <t>hills.king@mail.co</t>
-  </si>
-  <si>
-    <t>irwin.reed@mail.co</t>
-  </si>
-  <si>
-    <t>johnes.perry@mail.co</t>
-  </si>
-  <si>
-    <t>quinn.baker@mail.co</t>
-  </si>
-  <si>
-    <t>john.king@mail.co</t>
-  </si>
-  <si>
-    <t>clark.grover@mail.co</t>
+    <t>Baker.grover@email.co</t>
+  </si>
+  <si>
+    <t>DoB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -146,17 +75,28 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
       <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -166,25 +106,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font/>
   </fonts>
@@ -202,16 +123,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <right/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -219,37 +137,52 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,158 +405,104 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16">
+        <v>31169.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="16">
+        <v>37070.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17">
+        <v>36504.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16">
+        <v>36313.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10">
-      <c r="A10" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11">
-      <c r="A11" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -645,172 +524,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
-        <v>1.0</v>
+      <c r="A3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="8">
-        <v>3.0</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="8">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="8">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="8">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13">
-      <c r="A13" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
